--- a/All_clients.xlsx
+++ b/All_clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEOM.ANTONIO CAPEZZUTO IMPRESA COSTRUZIONI</t>
+          <t>TRELLEBORG WHEEL SYSTEMS ITALIA SPA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41.8901281</v>
+        <v>41.9565266</v>
       </c>
       <c r="E2" t="n">
-        <v>12.4667972</v>
+        <v>12.7786429</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -486,21 +486,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7668</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CET SPA</t>
+          <t>S.D.M. S.R.L.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41.8650312</v>
+        <v>41.9040318</v>
       </c>
       <c r="E3" t="n">
-        <v>12.6053862</v>
+        <v>12.609781</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -510,21 +510,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC DISTRIBUZIONE S.R.L</t>
+          <t>ASA TIVOLI SPA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41.9474896</v>
+        <v>41.9561013</v>
       </c>
       <c r="E4" t="n">
-        <v>12.7203556</v>
+        <v>12.7545889</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,21 +534,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>388</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7945</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ECOLOGIA VERZILLI S.R.L.</t>
+          <t>CAR S.C.P.A</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42.2374905</v>
+        <v>41.9414175</v>
       </c>
       <c r="E5" t="n">
-        <v>11.739691</v>
+        <v>12.6581804</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -558,21 +558,21 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4182</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O.ME.CA. SRL OFFICINA MECCANICA COSTRUZIONE</t>
+          <t>BRT SPA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41.64187949999999</v>
+        <v>41.9682276</v>
       </c>
       <c r="E6" t="n">
-        <v>13.3045958</v>
+        <v>12.6867695</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -582,21 +582,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4256</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TRADINGFOODS SRL</t>
+          <t>FITALS SRL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41.9429109</v>
+        <v>41.9404295</v>
       </c>
       <c r="E7" t="n">
-        <v>12.7573318</v>
+        <v>12.632209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,21 +606,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MANIERI &amp; CECCARELLI</t>
+          <t>S.S.T.MULTISERVIZI SRL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41.9197415</v>
+        <v>42.0183697</v>
       </c>
       <c r="E8" t="n">
-        <v>12.6793014</v>
+        <v>12.6877857</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -630,21 +630,21 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3605</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C.D. 2 LEONI SRL</t>
+          <t>BRT SPA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41.8633305</v>
+        <v>41.8516305</v>
       </c>
       <c r="E9" t="n">
-        <v>12.6598022</v>
+        <v>12.4017032</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -654,21 +654,21 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1260</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EGEM &amp; C.SRL</t>
+          <t>COMUNE DI MARANO EQUO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41.9334662</v>
+        <v>41.9944221</v>
       </c>
       <c r="E10" t="n">
-        <v>12.7546352</v>
+        <v>13.0170628</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -678,21 +678,21 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>4223</v>
+        <v>18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROCURA DELLA REPUBBLICA</t>
+          <t>MSX DISTRIBUTION SRL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41.9590924</v>
+        <v>41.9457858</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7957581</v>
+        <v>12.6790661</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -702,21 +702,21 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>370</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>7469</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COSMO SRL</t>
+          <t>DAF COSTRUZIONI STRADALI SRL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41.9604088</v>
+        <v>41.7898785</v>
       </c>
       <c r="E12" t="n">
-        <v>12.8026358</v>
+        <v>12.253282</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -726,21 +726,21 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CT IMPIANTI SRL</t>
+          <t>S.D.M. S.R.L.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41.8571483</v>
+        <v>41.699367</v>
       </c>
       <c r="E13" t="n">
-        <v>12.5635459</v>
+        <v>12.537473</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -750,21 +750,21 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>6826</v>
+        <v>25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PARROCCHIA SANTA MARIA MADDALENA DE PAZZI</t>
+          <t>BRICOFER ITALIA SPA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41.9359164</v>
+        <v>42.43997419999999</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5491809</v>
+        <v>12.0879411</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -774,21 +774,21 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BRT SPA</t>
+          <t>PAM PANORAMA SPA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41.8583959</v>
+        <v>41.8369267</v>
       </c>
       <c r="E15" t="n">
-        <v>12.6498806</v>
+        <v>12.5036337</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2631</v>
+        <v>28</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARTI GRAFICHE ROMA SRL</t>
+          <t>DC DISTRIBUZIONE S.R.L</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41.94921220000001</v>
+        <v>41.9474896</v>
       </c>
       <c r="E16" t="n">
-        <v>12.6739106</v>
+        <v>12.7203556</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>1631</v>
+        <v>30</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NEW ECOLOGY DI TUCCILLO PIETRO</t>
+          <t>MARZI ENNIO E MARCELLO SRL</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41.6392262</v>
+        <v>41.8997009</v>
       </c>
       <c r="E17" t="n">
-        <v>13.198478</v>
+        <v>12.5389903</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -846,21 +846,21 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>5014</v>
+        <v>33</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAL 2000 SRL SOC. UNIPERSONALE</t>
+          <t>G.S.I. SRL - SOCIO UNICO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41.9257346</v>
+        <v>41.9880981</v>
       </c>
       <c r="E18" t="n">
-        <v>12.4705183</v>
+        <v>12.7137027</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -870,21 +870,21 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>737</v>
+        <v>34</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B.E.C. ARREDAMENTI E FABBRICA CUCINA SRL</t>
+          <t>FARMACIA ROSSETTI S.A.S.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41.8647213</v>
+        <v>41.9667448</v>
       </c>
       <c r="E19" t="n">
-        <v>12.6999368</v>
+        <v>12.755939</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -894,21 +894,21 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>583</v>
+        <v>35</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUTO ROYAL COMPANY SRL</t>
+          <t>PAM PANORAMA SPA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41.9559004</v>
+        <v>41.9058414</v>
       </c>
       <c r="E20" t="n">
-        <v>12.4855787</v>
+        <v>12.610826</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>4953</v>
+        <v>43</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CENTRO INFISSI ROMA SRL</t>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41.8441535</v>
+        <v>41.8888376</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5930706</v>
+        <v>12.75733</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -942,21 +942,21 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>2771</v>
+        <v>44</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BANCA D'ITALIA</t>
+          <t>G.S.I. SRL - SOCIO UNICO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41.8710128</v>
+        <v>41.9716429</v>
       </c>
       <c r="E22" t="n">
-        <v>12.536673</v>
+        <v>12.7659184</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -966,21 +966,21 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>5821</v>
+        <v>46</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M.R.M. MATTONI RESTAURI MONUMENTALI SRL</t>
+          <t>MARTINELLI SRL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41.9025588</v>
+        <v>41.94892</v>
       </c>
       <c r="E23" t="n">
-        <v>12.4772614</v>
+        <v>12.6872721</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -990,21 +990,21 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>670</v>
+        <v>48</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MECCATRONICA ITALIANA SRL</t>
+          <t>BRT SPA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41.9443162</v>
+        <v>42.1320716</v>
       </c>
       <c r="E24" t="n">
-        <v>12.6734517</v>
+        <v>12.5839994</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S.S.T.MULTISERVIZI SRL</t>
+          <t>INNOCENTI SRL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42.0183697</v>
+        <v>41.955471</v>
       </c>
       <c r="E25" t="n">
-        <v>12.6877857</v>
+        <v>12.7640919</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1038,21 +1038,21 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>5822</v>
+        <v>68</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLENZICH SPA</t>
+          <t>COMANDO PER LA FORMAZIONE -COMFORDOT-</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41.81258</v>
+        <v>41.80589</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4253191</v>
+        <v>12.49709</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>1368</v>
+        <v>69</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONTROSOFFITTI D.R. SAS DI DI MARZO TOBIA &amp;</t>
+          <t>COMMERCIALE R.A.N. SRL</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41.9146393</v>
+        <v>41.9538438</v>
       </c>
       <c r="E27" t="n">
-        <v>12.6616814</v>
+        <v>12.7416715</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>1146</v>
+        <v>77</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WOOD DESIGN S.R.L.S.</t>
+          <t>BRT SPA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41.9266304</v>
+        <v>41.8583959</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6276879</v>
+        <v>12.6498806</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1110,21 +1110,21 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>964</v>
+        <v>79</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AUTO ROYAL COMPANY SRL</t>
+          <t>SUPERMERCATO DI CARMINE &amp; C. SNC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41.9667571</v>
+        <v>41.9666436</v>
       </c>
       <c r="E29" t="n">
-        <v>12.5344834</v>
+        <v>12.756942</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>5261</v>
+        <v>83</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SEBACH SRL - CAMPO BASE PILE</t>
+          <t>BRT SPA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41.8057772</v>
+        <v>42.13059010000001</v>
       </c>
       <c r="E30" t="n">
-        <v>12.525692</v>
+        <v>12.5826093</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1158,23 +1158,7891 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>ARREDAMENTI ALLEGRINI AMEDEO -NON USARE-</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>41.95146949999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.6728393</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GALILEO SPA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>41.9502274</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.7649631</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>98</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>S.D.M. S.R.L.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42.4109454</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.0984494</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>41.79828</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.624</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B35" t="n">
+        <v>107</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DITTA AZZARO GIOVANNI DI AZZARO IRENE</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>41.92048519999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12.3738729</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B36" t="n">
+        <v>108</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PC MODULES AUTOMOTIVE S.P.A.</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>41.7442112</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.9989281</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B37" t="n">
+        <v>110</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GELEN SRL</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>41.7702844</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.333226</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B38" t="n">
+        <v>113</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>BRICOFER ITALIA SPA</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>42.43997419999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.0879411</v>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="D38" t="n">
+        <v>42.1169444</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.5908333</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B39" t="n">
+        <v>123</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AGRIMODERNA DI CORAZZA DANIELE</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>41.8337613</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.888752</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B40" t="n">
+        <v>125</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BRT SPA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>41.8310339</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.4424465</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B41" t="n">
+        <v>128</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CONS.OPERAT.CENTRO COMM.LE GRANAI DI NERVA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>41.8369267</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.5036337</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>139</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ARREDAMENTI ALLEGRINI AMEDEO -NON USARE-</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>41.9381165</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.6195821</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>140</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LA BOTTEGA DI PIOVESAN P. &amp; S. SNC</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>41.956612</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.767227</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>141</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>S.D.M. S.R.L.</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>41.4431654</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.9413039</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>146</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>INNOCENTI SOCIETA' COOP.VA SOCIALE</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>41.9944221</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13.0170628</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>148</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CROCE BLU SOC.COOP.</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>41.9827283</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12.7123675</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>162</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>41.7009205</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.6463146</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>176</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ARTEDIL M.P SRL</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>41.9467834</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.5492837</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>179</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A.PE.S. SNC DI F.LLI SPERANDIO</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>42.0288904</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.7900278</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>186</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MARCANDRE' INFISSI SRL</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>41.8977952</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.5554078</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B51" t="n">
+        <v>205</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>41.9527911</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.7147657</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B52" t="n">
+        <v>218</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>VALLATINNOCENTI SNC</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>41.9404295</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.632209</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B53" t="n">
+        <v>221</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MANIERI &amp; CECCARELLI</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>41.9197415</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.6793014</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B54" t="n">
+        <v>238</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>XPO SUPPLY CHAIN CONSUMER GOODS ITALY S.P.A.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>41.8637564</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.6096171</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B55" t="n">
+        <v>250</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>41.9228369</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.5014301</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B56" t="n">
+        <v>257</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FRATELLI GOLOTTA SNC</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>41.9598659</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.7023772</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B57" t="n">
+        <v>258</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MANUTENZIONE COMPI 76 SRL</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>42.002856</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12.7148523</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B58" t="n">
+        <v>271</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOC.MAREMMANA PETROLI A.R.L.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>41.9380236</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.7551657</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B59" t="n">
+        <v>272</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>41.9134216</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.5539846</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B60" t="n">
+        <v>301</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>S.D.M. S.R.L.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>41.4725227</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.7936649</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B61" t="n">
+        <v>309</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CONSORZIO CARTIERE IN TIVOLI</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>41.955471</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.7640919</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B62" t="n">
+        <v>312</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>41.8865665</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.6650496</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B63" t="n">
+        <v>342</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>UNDO ADUNANZA SPA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>41.9426411</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.6750491</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B64" t="n">
+        <v>347</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANATECH SRL</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>41.9581552</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.7051657</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B65" t="n">
+        <v>372</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FAL &amp; ART DI MARIOTTI FABRIZIO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>41.9503905</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.7316476</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B66" t="n">
+        <v>374</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SATI SRL</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>41.9581552</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.7051657</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B67" t="n">
+        <v>386</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>F.U.A.N. SRL</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41.9427518</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.6766214</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B68" t="n">
+        <v>389</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BONAFEDE STEFANO</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>41.87813850000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.6966163</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B69" t="n">
+        <v>392</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CT IMPIANTI SRL</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>41.8571483</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.5635459</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B70" t="n">
+        <v>413</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SOC.MAREMMANA PETROLI A.R.L.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>41.9857952</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.723253</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B71" t="n">
+        <v>414</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DOMUS MARMI</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>41.9500652</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.7608929</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B72" t="n">
+        <v>431</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>INPS ISTITUTO NAZIONALE PREVIDENZA SOCIALE</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>41.9098735</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.6221737</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B73" t="n">
+        <v>457</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EDILGAFE SRL</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>41.7729835</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.261582</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B74" t="n">
+        <v>460</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>EDIL RESTAURI DI BERNARDINI SARA</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>41.920334</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.5333292</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B75" t="n">
+        <v>463</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ENART SRLS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>41.9456825</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.6711329</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B76" t="n">
+        <v>473</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>41.8886317</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.4039018</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B77" t="n">
+        <v>478</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>LA GICA GIOCHI S.R.L.</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>41.7985338</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.9755794</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B78" t="n">
+        <v>484</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>41.951435</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12.7713788</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B79" t="n">
+        <v>485</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>41.961535</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12.7567041</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B80" t="n">
+        <v>507</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MEDIASERVICE RECYCLING SRL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>41.9319972</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12.6140927</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B81" t="n">
+        <v>509</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>O.VE.R.AL. SRL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>41.919487</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12.590054</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B82" t="n">
+        <v>519</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ARREDAMENTI ALLEGRINI S.R.L.</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>41.95146949999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.6728393</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B83" t="n">
+        <v>523</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>M.C.R. SRL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>41.8793057</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12.5530678</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B84" t="n">
+        <v>526</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FCA ITALY S.P.A.</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>41.479324</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13.791104</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B85" t="n">
+        <v>532</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SAUIE SRL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>41.8888376</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12.75733</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B86" t="n">
+        <v>540</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>41.8833731</v>
+      </c>
+      <c r="E86" t="n">
+        <v>12.5442608</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B87" t="n">
+        <v>572</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>EASYLOG S.R.L.</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>41.93745879999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>12.7173405</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B88" t="n">
+        <v>577</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>GROTTINI SRL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>41.95780990000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>12.5488061</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B89" t="n">
+        <v>581</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PITTURE PROFESSIONALI 3P</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>42.1306212</v>
+      </c>
+      <c r="E89" t="n">
+        <v>12.5837607</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B90" t="n">
+        <v>583</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>AUTO ROYAL COMPANY SRL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>41.9559004</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12.4855787</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B91" t="n">
+        <v>611</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CET SPA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>41.9279883</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12.6297842</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B92" t="n">
+        <v>619</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MIDAS FALEGNAMI</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>41.6735252</v>
+      </c>
+      <c r="E92" t="n">
+        <v>12.5090822</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B93" t="n">
+        <v>645</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CEDI GROS SOC.CONS.ARL</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>41.89160529999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>12.5911318</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B94" t="n">
+        <v>670</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MECCATRONICA ITALIANA SRL</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>41.9443162</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12.6734517</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B95" t="n">
+        <v>680</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ALL'OPERA SOCIETA' COOP.VA SRL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>41.9557449</v>
+      </c>
+      <c r="E95" t="n">
+        <v>12.6942935</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B96" t="n">
+        <v>689</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CANTIERI DI OSTIA SRL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>41.7409379</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12.2438087</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B97" t="n">
+        <v>706</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SUAMI S.R.L</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>41.950738</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12.6742192</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B98" t="n">
+        <v>737</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>B.E.C. ARREDAMENTI E FABBRICA CUCINA SRL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>41.8647213</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12.6999368</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B99" t="n">
+        <v>759</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ECOMATIC SRL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>41.758883</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12.5807745</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B100" t="n">
+        <v>766</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>RAFFAELE PYROTECH S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>41.9001901</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12.8381105</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B101" t="n">
+        <v>824</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PLENZICH SRL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>42.00239</v>
+      </c>
+      <c r="E101" t="n">
+        <v>12.7474632</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B102" t="n">
+        <v>836</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CASTALDI SRL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>41.9581552</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.7051657</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B103" t="n">
+        <v>881</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>41.9565266</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12.7786429</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B104" t="n">
+        <v>900</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PAL 2000 SRL SOC. UNIPERSONALE</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>41.87124</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12.68976</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B105" t="n">
+        <v>915</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>OFFICINE G.N.A. SRL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>41.97564999999999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>12.70317</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B106" t="n">
+        <v>916</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ARCHIGIA SRL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>41.9574463</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12.7036287</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B107" t="n">
+        <v>918</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MARIOTTI RECUPERI AMBIENTALI E LOGISTICA SRL</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>41.8798203</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12.6995421</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B108" t="n">
+        <v>938</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>COSTRUZIONI MECCANICHE FANTINI SRL</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>41.9583567</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12.7792342</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B109" t="n">
+        <v>964</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AUTO ROYAL COMPANY SRL</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>41.9667571</v>
+      </c>
+      <c r="E109" t="n">
+        <v>12.5344834</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B110" t="n">
+        <v>993</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>FINESSO ROMA SRL</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>41.92651000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12.62551</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B111" t="n">
+        <v>994</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>41.7394792</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12.2643225</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B112" t="n">
+        <v>995</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PAM PANORAMA SPA</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>41.8190868</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12.4821628</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>EDILGAFE SRL</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>41.8872254</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.5681987</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SDA. EXPRESS COURIER S.P.A.</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>41.9322108</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.6184486</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>GIANFELICE MARIA CARLA</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>41.88117829999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.6158293</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TEAM SOC. COOP.</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>42.0023546</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.7454911</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>'C.M. RESTAURI SRL''</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>41.9487735</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.4437464</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>STAR CAR 93 SRL</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>41.95768</v>
+      </c>
+      <c r="E118" t="n">
+        <v>13.05176</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PIMOI RISTRUTTURAZIONI SRL S</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>41.9234078</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.444407</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>OTTANTA G.C. SRL</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>41.95631700000001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.6998702</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>41.8807202</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.5051165</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>WOOD DESIGN S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>41.9266304</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.6276879</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SDA. EXPRESS COURIER S.P.A.</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>41.9322564</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.6173148</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1157</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D66 SRL</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>41.88016409999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.5165324</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1163</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>INEDIL SRL</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>42.1547044</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.5916959</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>BAGNO IDEA DI CIANFONI MARIO</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>41.9592025</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.7182162</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>41.9559974</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.7590488</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>BUZZI UNICEM SPA</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>41.9939694</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.7245045</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>EGEM &amp; C.SRL</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>41.9334662</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.7546352</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1296</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>EKO S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>42.450757</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.833952</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FEDERAZIONE ITALIANA DI ATLETICA LEGGERA</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>41.95076299999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.676142</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CONTROSOFFITTI D.R. SAS DI DI MARZO TOBIA &amp;</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>41.9146393</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.6616814</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>LEALE SRL</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>41.9761082</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.7645427</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NOVA GAROFOLIVE SAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>41.9755154</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.8696673</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MINISTERO DEL LAVORO E DELLE POLITICHE SOCIAL</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>41.9060711</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.4955564</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1418</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MINISTERO DEL LAVORO E DELLE POLITICHE SOCIAL</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>41.9060615</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.4889312</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MINISTERO DEL LAVORO E DELLE POLITICHE SOCIAL</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>41.9130606</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.4688303</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>COMUNE DI OLEVANO ROMANO</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>41.8603628</v>
+      </c>
+      <c r="E138" t="n">
+        <v>13.0321179</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>COMUNE DI VALLINFREDA</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>42.0845758</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.9954941</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>C.D.A. SCAVI S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>41.904467</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.4832474</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>EGEM &amp; C.SRL</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>41.9562529</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.773736</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AZIENDA AGRICOLA GALASSO SS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>41.9122571</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.7345327</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1611</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ECO LOGICA 2000 SRL</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>41.7824934</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.604908</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ELETTROSERVIZI SRL</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>41.950152</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.731035</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NEW ECOLOGY DI TUCCILLO PIETRO</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>41.6392262</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13.198478</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>BALTERA SRL</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>41.9776244</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.6185952</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>C.D.A. SCAVI S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>41.9500652</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.7608929</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1648</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DSA APPALTI SRL</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>42.0185962</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.8903616</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>INEDIL SRL</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>41.7161002</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.6172552</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ITALDECO'SRL</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>41.8865104</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.6113809</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>IMBALLAGGI IN LEGNO SRL</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>41.9500652</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.7608929</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>UNDO ADUNANZA SPA</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>41.95337749999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.7658629</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1795</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>41.8158432</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.7693058</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>41.94910429999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.7613439</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NARDONI VERONICA</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>41.9711745</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.4393859</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>GRAPE HOSPITALITY ITALIAN OPCO SRL</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>41.9136927</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.6179882</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1873</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>AUTOCARROZZERIA NUTI SAS</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>41.80793</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.5230477</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>EDILIMPIANTI DI TOMASONE LUIGI NAZARIO</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>41.9396361</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.5360327</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>DIREZIONE CASA CIRCONDARIALE REBIBBIA N.C.</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>41.9311488</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.5742233</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>COMMERCIALE R.A.N. SRL</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>41.950800</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>12.701952</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SITTEL SPA</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>41.9182307</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.6107807</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>41.8332484</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.87327</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>42.008665</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>12.714259</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>GRANDI LAVORI FINCOSIT SPA</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>41.9228369</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.5014301</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>41.9585754</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.713187</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ALMA LASERS ITALIA SRL</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>42.0505476</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.4025142</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DITTA GARDEN ROBERTO CAMPETELLA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>41.9052243</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.5950322</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PALMA SNC DI PALMA FABIO E MARCO</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>42.15495740000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.2467177</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PLENZICH SRL</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>41.9454637</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.6806019</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MIDAS SRL</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>41.6610039</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.521854</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>AGRICOLA SALONE SOCIETA' AGRICOLA A</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>41.9058414</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.610826</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>HENRAUX SPA</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>41.9451526</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.7338211</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SOLUZIONE IMPIANTI SRL</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>41.9313665</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.5235279</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ANGELOZZI GIUSEPPE</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>41.8700307</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.580093</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DC CASA SRL</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>41.93745879999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.7173405</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>GEOM.ANTONIO CAPEZZUTO IMPRESA COSTRUZIONI</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>41.8901281</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.4667972</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MARCELLI PAOLO</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>41.9527247</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.8032328</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2063</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>OTTANTA G.C. SRL</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>41.93367</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.5383</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>UFFICIO STILE FRANCHISING GROUP SRL</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>41.77513460000001</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.6107139</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DIPSI GESTIONE IMMOBILIARE SRL INSIGLA DIPSI</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>41.950738</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.6742192</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2151</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>INEDIL SRL</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>41.9083023</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.4659226</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SERVIZI RESTAURI LOGISTICA SOC. COOP.</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>41.8796453</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.4585055</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2184</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>STALG DI V.PALLOTTA DI ROBERTO PALLOTTA</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>41.9176378</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.6012183</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2187</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ROMANA DIESEL SPA</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>41.9035529</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.6140863</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ROMANA DIESEL AZIENDA CAR</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>41.6072368</v>
+      </c>
+      <c r="E185" t="n">
+        <v>13.2964038</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2191</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>41.8441278</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.8529722</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2219</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>PRODE SRL</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>42.00442</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.6690191</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2226</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>VAVOLI ADRIANO VITTORIO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>41.279208</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>13.175253</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2229</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D'ACHILLE G. EDILIMPIANTI S.R.L.S.</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>41.93826199999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.4412739</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2264</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>EDIL GERO SRL</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>41.8913962</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.4178017</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2275</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ECOROMA 2015 DI GOSTI WALTER</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>41.8424053</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.7852366</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CITARIGABI.CO DI TODERITA GABRIEL CRISTIAN</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>41.8886247</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.5359786</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2291</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>41.9533982</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.7956943</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2293</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>AUTOIN BY FERI SPA</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>41.9495334</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.7657745</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2336</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>DIREZIONE 3 CASA CIRCONDARIALE</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>41.9353358</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.5701885</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2364</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SAGI LAVORI SRL</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>41.8985244</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.5031185</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2423</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>PACKAGING SOC COOP SOCIALE</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>41.955471</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.7640919</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIMA SRL</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>41.9246432</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.4742656</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2529</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIRO LEGNO S.R.L.</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>41.9506969</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.8251283</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2566</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>PAC 2000 A SOC COOP</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>42.1383825</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12.59359</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2580</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>CE.STRA SRL</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>41.8479537</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.6346416</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2631</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ARTI GRAFICHE ROMA SRL</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>41.94921220000001</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.6739106</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2649</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>MARIO CIPRIANI SRL</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>41.9146521</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.5416907</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2693</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SA GROUP SNC</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>41.9394914</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.4696318</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2736</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>BISCOTTI GENTILINI SRL</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>41.9354528</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.6134585</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2771</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>BANCA D'ITALIA</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>41.8710128</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.536673</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ROMA MACCHINE SRL SEMPLIFICATA</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>41.9448685</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.6723586</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2823</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MANIERI &amp; C. SRL</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>41.9202522</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12.6785967</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>BERNARDINI ANDREA</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>41.96004360000001</v>
+      </c>
+      <c r="E209" t="n">
+        <v>12.5561563</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2988</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>JINFENG SRL</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>41.9404295</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12.632209</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3006</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>RISTORAZIONE TOTARELLO SRL</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>41.952562</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.715729</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3019</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SPIRIDIGLIOZZI SRL</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>41.9727304</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12.7499655</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3053</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>41.9265945</v>
+      </c>
+      <c r="E213" t="n">
+        <v>13.0981317</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3086</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>IPA ITALIA SRL</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>42.0024773</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12.7454626</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3096</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>41.9538348</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12.7360081</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>41.94814</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12.77241</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3129</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>EXECUTIVE ROMA SRL</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>41.8899478</v>
+      </c>
+      <c r="E217" t="n">
+        <v>12.5006981</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3138</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>41.9519834</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12.7680111</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3140</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>EDILFERRO DI SCROCCA ENRICO CLAUDIO &amp; C. SNC</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>41.9426411</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12.6750491</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3312</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>PARCHI GLOBAL SERVICES SPA</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>42.2374974</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13.129806</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3386</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>STEF SEAFOOD ITALIA SRL</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>41.9474896</v>
+      </c>
+      <c r="E221" t="n">
+        <v>12.7203556</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3423</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>41.9454028</v>
+      </c>
+      <c r="E222" t="n">
+        <v>12.7206413</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3430</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>LADY PORTA SRL</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>41.9525914</v>
+      </c>
+      <c r="E223" t="n">
+        <v>12.675241</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3449</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BANCA D'ITALIA</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>41.845038</v>
+      </c>
+      <c r="E224" t="n">
+        <v>12.6530705</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3533</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>FAL&amp;ART DEI F.LLI MARIOTTI ANDREA E</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>41.9496821</v>
+      </c>
+      <c r="E225" t="n">
+        <v>12.7353944</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3539</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>RICAMBI ONLINE TIBURTINA 2 SRL</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>41.9456183</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12.6720569</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3605</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>C.D. 2 LEONI SRL</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>41.8633305</v>
+      </c>
+      <c r="E227" t="n">
+        <v>12.6598022</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3648</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>BLU GRAFIC SNC</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>41.84504</v>
+      </c>
+      <c r="E228" t="n">
+        <v>12.34912</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3652</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>41.9585141</v>
+      </c>
+      <c r="E229" t="n">
+        <v>12.7132017</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3700</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>41.97937</v>
+      </c>
+      <c r="E230" t="n">
+        <v>12.7945047</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3757</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CONSORZIO ROLANDO INNOCENTI</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>41.9116952</v>
+      </c>
+      <c r="E231" t="n">
+        <v>12.5664646</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>G.H. GENERAL HOUSE SRL</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>41.8133383</v>
+      </c>
+      <c r="E232" t="n">
+        <v>12.6623029</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3812</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>EURODEMOLIZIONI 2 SRL</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>41.7817208</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13.0360964</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3827</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CONSORZIO ROLANDO INNOCENTI</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>41.9268362</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12.5329118</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3851</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>EURODEMOLIZIONI 2 SRL</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>41.8586471</v>
+      </c>
+      <c r="E235" t="n">
+        <v>12.5856338</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3859</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ANCA TURCUMAN</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>41.9384602</v>
+      </c>
+      <c r="E236" t="n">
+        <v>12.6487062</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3861</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>GIORGIO GIULI</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>41.9503852</v>
+      </c>
+      <c r="E237" t="n">
+        <v>12.722161</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3894</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>PRIMA COMPONENTS PALIANO SRL</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>41.7897895</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13.0485653</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3927</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MERCK SERONO SPA</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>41.9490511</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.687231</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3986</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>EDIL.MAN. SRL</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>41.9565266</v>
+      </c>
+      <c r="E240" t="n">
+        <v>12.7786429</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>41.9446185</v>
+      </c>
+      <c r="E241" t="n">
+        <v>12.7847706</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4012</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>LA QUERCIA SRL</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>41.9376022</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.6798148</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4063</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ALTRAN ITALIA SPA</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>41.933305</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.6039511</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4070</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>F.LLI TOMMASINI SNC</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>41.9470593</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.7026261</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4182</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>O.ME.CA. SRL OFFICINA MECCANICA COSTRUZIONE</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>41.64187949999999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>13.3045958</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4188</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DE VINCENZI DANIELE</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>41.9768919</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.7047616</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4223</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>PROCURA DELLA REPUBBLICA</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>41.9590924</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.7957581</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4227</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>LA FORMICA - SOCIETA' COOPERATIVA</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>41.9426411</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.6750491</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4256</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>TRADINGFOODS SRL</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>41.9429109</v>
+      </c>
+      <c r="E249" t="n">
+        <v>12.7573318</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4289</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ARIETE FATTORIA LATTE SANO SPA</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>41.9491512</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.7641356</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4323</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CONSORZIO ROLANDO INNOCENTI</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>41.9565266</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.7786429</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4394</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>AERONAUTICA MILITARE CENTRO LOG. POLIVALENTE</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>41.9873489</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12.7168476</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4433</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>ZOE SRL</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>41.8871555</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12.5230731</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4519</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>GALLI CLAUDIO</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>41.9582172</v>
+      </c>
+      <c r="E254" t="n">
+        <v>12.769235</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4560</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>DC DISTRIBUZIONE S.R.L -NON USARE-</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>41.9474896</v>
+      </c>
+      <c r="E255" t="n">
+        <v>12.7203556</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4609</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>STEF ITALIA SPA</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>41.9337495</v>
+      </c>
+      <c r="E256" t="n">
+        <v>12.620699</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4620</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>"RESIDENCE LA MERIDIANA"</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>41.9447402</v>
+      </c>
+      <c r="E257" t="n">
+        <v>12.7603794</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4624</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ARSIAL</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>41.97145990000001</v>
+      </c>
+      <c r="E258" t="n">
+        <v>12.0379641</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4658</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ISOTTA DI FABIO PERREA</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>41.9013594</v>
+      </c>
+      <c r="E259" t="n">
+        <v>12.6769797</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4724</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>M.A.SSI. SRL</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>41.9880981</v>
+      </c>
+      <c r="E260" t="n">
+        <v>12.7137027</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4751</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>IDROSERVICE SRL</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>41.950935</v>
+      </c>
+      <c r="E261" t="n">
+        <v>12.650193</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4782</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>S.D.M. S.R.L.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>41.8637564</v>
+      </c>
+      <c r="E262" t="n">
+        <v>12.6096171</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4810</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>CMC CAR SERVICE SRL IN BREVE CMC CAR SERVICE</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>41.7817208</v>
+      </c>
+      <c r="E263" t="n">
+        <v>13.0360964</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4818</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>PALMIERI SERRAMENTI SRL SEMPLIFICATA</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>41.8307347</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12.4350579</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4916</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CAGIMM SRL</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>41.8771512</v>
+      </c>
+      <c r="E265" t="n">
+        <v>12.5523729</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4929</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>MINISTERO DELLA DIF.RAGGR.AUT.DEL MINISTERO</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>41.9016402</v>
+      </c>
+      <c r="E266" t="n">
+        <v>12.4930309</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4931</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>LUNA 2010 SRL</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>41.9561013</v>
+      </c>
+      <c r="E267" t="n">
+        <v>12.7545889</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4953</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CENTRO INFISSI ROMA SRL</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>41.8441535</v>
+      </c>
+      <c r="E268" t="n">
+        <v>12.5930706</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5014</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PAL 2000 SRL SOC. UNIPERSONALE</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>41.9257346</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12.4705183</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5061</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>TABER IMPIANTI DI BETRO' ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>41.8597511</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.4435519</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5081</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>FER.RO.VIT SOC CONSORTILE A RL</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>41.9127309</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.4781325</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5143</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>EUROEDIL DI DE SILVESTRIS ROBERTO</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>41.9214938</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.7232629</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5147</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>CEDI GROS SOC.CONS.ARL</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>41.9633123</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.7958058</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5170</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SAMI  SRL</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>41.9805053</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.7494056</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5186</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>41.9264804</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.4635</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5192</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>CASERMA "A. RUFFO"</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>41.9126514</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12.5558508</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5261</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SEBACH SRL - CAMPO BASE PILE</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>41.8057772</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.525692</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5297</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>41.88268619999999</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.5381859</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5323</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FITALS SRL A SOCIO UNICO</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>41.9404295</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.632209</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5332</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>ENART SRLS</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>41.8308692</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.477381</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>HTR BONIFICHE SRL</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>41.89182</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.47563</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5463</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>HTR BONIFICHE SRL</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>41.81563999999999</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.4688588</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>ITALSERVIZI 2000 SRL</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>41.8618642</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.708002</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5638</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>TERMOFLUID SRL</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>41.9135766</v>
+      </c>
+      <c r="E284" t="n">
+        <v>12.7286853</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5643</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>PONTIFICIO SEMINARIO ROMANO MAGGIORE</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>41.8858811</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.505673</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5785</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CAFFARELLI LUIGI</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>41.9594198</v>
+      </c>
+      <c r="E286" t="n">
+        <v>12.8831562</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5809</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SELLOUT S.A.S. DI DE PASQUALE VINCENZO &amp; C.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>41.9497507</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.4778153</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5821</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>M.R.M. MATTONI RESTAURI MONUMENTALI SRL</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>41.9025588</v>
+      </c>
+      <c r="E288" t="n">
+        <v>12.4772614</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5822</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>PLENZICH SPA</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>41.81258</v>
+      </c>
+      <c r="E289" t="n">
+        <v>12.4253191</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5825</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>PLENZICH SPA</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>41.9454637</v>
+      </c>
+      <c r="E290" t="n">
+        <v>12.6806019</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5868</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>41.8953557</v>
+      </c>
+      <c r="E291" t="n">
+        <v>12.6888191</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5889</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>LAZIALE COSTRUZIONI 2000 SRL</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>41.9868129</v>
+      </c>
+      <c r="E292" t="n">
+        <v>12.7233426</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>D66 SRL</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>41.9186249</v>
+      </c>
+      <c r="E293" t="n">
+        <v>12.5053925</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5908</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>41.9245783</v>
+      </c>
+      <c r="E294" t="n">
+        <v>12.7918754</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5937</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>RUVILUX  DI ARCANGELI GIOVANNI</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>41.8804579</v>
+      </c>
+      <c r="E295" t="n">
+        <v>12.5202576</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5938</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>RUVILUX  DI ARCANGELI GIOVANNI</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>41.8694369</v>
+      </c>
+      <c r="E296" t="n">
+        <v>12.4611411</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5964</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>MILANO ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>41.8554537</v>
+      </c>
+      <c r="E297" t="n">
+        <v>12.5661889</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6024</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>COGNO ENRICO</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>41.99113</v>
+      </c>
+      <c r="E298" t="n">
+        <v>12.39713</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B299" t="n">
+        <v>6057</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>FARMACIA SCIARRA SAS DEL DOTTOR GIUS</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>41.95181120000001</v>
+      </c>
+      <c r="E299" t="n">
+        <v>12.7678637</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6289</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>HOUSE UP SRL</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>41.8185323</v>
+      </c>
+      <c r="E300" t="n">
+        <v>12.7749025</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B301" t="n">
+        <v>6300</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>41.8983613</v>
+      </c>
+      <c r="E301" t="n">
+        <v>12.535235</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6301</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>41.9527675</v>
+      </c>
+      <c r="E302" t="n">
+        <v>12.7915618</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6319</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>AZIENDA AGRICOLA LA NUOVA CERVELLETTA DI</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>41.9152324</v>
+      </c>
+      <c r="E303" t="n">
+        <v>12.5813879</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B304" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>MSX SRL</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>41.9457858</v>
+      </c>
+      <c r="E304" t="n">
+        <v>12.6790661</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B305" t="n">
+        <v>6400</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ALESSANDRO FIORANELLI</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>41.835699</v>
+      </c>
+      <c r="E305" t="n">
+        <v>12.6867945</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B306" t="n">
+        <v>6471</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>CET SPA</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>42.130989</v>
+      </c>
+      <c r="E306" t="n">
+        <v>12.582302</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B307" t="n">
+        <v>6480</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>EDITRICE MILLENIUM SRL</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>41.8488274</v>
+      </c>
+      <c r="E307" t="n">
+        <v>12.4682491</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B308" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>AZ.AGRIC. DEC DI SBAGLIA ANNUNZIATA</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>42.0147846</v>
+      </c>
+      <c r="E308" t="n">
+        <v>12.7601943</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B309" t="n">
+        <v>6550</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>41.9224789</v>
+      </c>
+      <c r="E309" t="n">
+        <v>12.4853533</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B310" t="n">
+        <v>6551</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>41.93868459999999</v>
+      </c>
+      <c r="E310" t="n">
+        <v>12.7885837</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B311" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>PROGETTO LEGNO SRL SEMPLIFICATA</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>42.0073626</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12.79996</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B312" t="n">
+        <v>6625</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>IMMOBILIARE BAGNI DI TIVOLI SRL</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>41.93745879999999</v>
+      </c>
+      <c r="E312" t="n">
+        <v>12.7173405</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B313" t="n">
+        <v>6646</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>41.9366186</v>
+      </c>
+      <c r="E313" t="n">
+        <v>12.5536573</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B314" t="n">
+        <v>6665</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>MED SEALOG SRL</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>41.9474896</v>
+      </c>
+      <c r="E314" t="n">
+        <v>12.7203556</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B315" t="n">
+        <v>6682</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ROMANA PONZIO SRL</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>41.84589889999999</v>
+      </c>
+      <c r="E315" t="n">
+        <v>12.6070006</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B316" t="n">
+        <v>6722</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>EVANGELISTI SANDRO</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>41.9945248</v>
+      </c>
+      <c r="E316" t="n">
+        <v>12.7471143</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B317" t="n">
+        <v>6763</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>42.0286002</v>
+      </c>
+      <c r="E317" t="n">
+        <v>12.7173439</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B318" t="n">
+        <v>6764</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>41.8306745</v>
+      </c>
+      <c r="E318" t="n">
+        <v>12.5193903</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B319" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>CROCE BLU SOC COOP SOCIALE A RL</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>41.9827283</v>
+      </c>
+      <c r="E319" t="n">
+        <v>12.7123675</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B320" t="n">
+        <v>6783</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>TIVOLI JET SRL</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>41.9852733</v>
+      </c>
+      <c r="E320" t="n">
+        <v>12.7625165</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B321" t="n">
+        <v>6786</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>PABULO SRL</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>41.9442643</v>
+      </c>
+      <c r="E321" t="n">
+        <v>12.6729868</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B322" t="n">
+        <v>6826</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>PARROCCHIA SANTA MARIA MADDALENA DE PAZZI</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>41.9359164</v>
+      </c>
+      <c r="E322" t="n">
+        <v>12.5491809</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B323" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>EDIL CARCIBOVE SRL</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>41.9969234</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12.7194833</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B324" t="n">
+        <v>6870</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DC SRL</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>41.93745879999999</v>
+      </c>
+      <c r="E324" t="n">
+        <v>12.7173405</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B325" t="n">
+        <v>6962</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>IMMVEST SRL</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>41.9622587</v>
+      </c>
+      <c r="E325" t="n">
+        <v>12.6471432</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6963</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>CASA SANT'AGNESE</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>41.9354539</v>
+      </c>
+      <c r="E326" t="n">
+        <v>12.5339655</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6989</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>ITALSERVIZI 2000 SRL</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>41.869927</v>
+      </c>
+      <c r="E327" t="n">
+        <v>12.6898349</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B328" t="n">
+        <v>7044</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>FERRETTI ANGELO</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>42.0183697</v>
+      </c>
+      <c r="E328" t="n">
+        <v>12.6877857</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B329" t="n">
+        <v>7115</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>41.9382914</v>
+      </c>
+      <c r="E329" t="n">
+        <v>12.7862191</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B330" t="n">
+        <v>7162</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>41.9657787</v>
+      </c>
+      <c r="E330" t="n">
+        <v>12.7597522</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B331" t="n">
+        <v>7186</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ELETTROLED SRL</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>41.93745879999999</v>
+      </c>
+      <c r="E331" t="n">
+        <v>12.7173405</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B332" t="n">
+        <v>7202</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>FARBENPLAST DI TURCO DANIELE</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>41.7117999</v>
+      </c>
+      <c r="E332" t="n">
+        <v>13.0363848</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B333" t="n">
+        <v>7213</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>FINVEST SRL</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>41.9609569</v>
+      </c>
+      <c r="E333" t="n">
+        <v>12.6527188</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B334" t="n">
+        <v>7305</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DELLA CHIESA GIULIA</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>42.2583125</v>
+      </c>
+      <c r="E334" t="n">
+        <v>12.6551757</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B335" t="n">
+        <v>7363</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>LOMBARDI ALBERTO &amp; LOMBARDI MARIO SAS</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>41.950800</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>12.701952</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B336" t="n">
+        <v>7370</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>MP1 SRL</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>41.89703</v>
+      </c>
+      <c r="E336" t="n">
+        <v>12.60687</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B337" t="n">
+        <v>7469</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>COSMO SRL</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>41.9604088</v>
+      </c>
+      <c r="E337" t="n">
+        <v>12.8026358</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B338" t="n">
+        <v>7484</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>EFFEDI SICUREZZA DI GIULIANI FRANCO</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>41.8724321</v>
+      </c>
+      <c r="E338" t="n">
+        <v>12.6892201</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B339" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>HTR BONIFICHE SRL</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>41.6568646</v>
+      </c>
+      <c r="E339" t="n">
+        <v>12.5459129</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B340" t="n">
+        <v>7512</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>GIANFELICI SRL</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>41.8150973</v>
+      </c>
+      <c r="E340" t="n">
+        <v>12.4118744</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B341" t="n">
+        <v>7562</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>TEKNO OFFICE SRL SEMPLIFICATA</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>41.9547736</v>
+      </c>
+      <c r="E341" t="n">
+        <v>12.7556295</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B342" t="n">
+        <v>7573</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>SEBACH SRL - CAMPO BASE PILE</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>41.8221097</v>
+      </c>
+      <c r="E342" t="n">
+        <v>12.3731117</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B343" t="n">
+        <v>7645</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>AC ECOLOGIA SRL</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>41.8057772</v>
+      </c>
+      <c r="E343" t="n">
+        <v>12.525692</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B344" t="n">
+        <v>7647</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>RICCARDO DI MARIO</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>41.95997850000001</v>
+      </c>
+      <c r="E344" t="n">
+        <v>12.7937386</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B345" t="n">
+        <v>7650</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>41.93922</v>
+      </c>
+      <c r="E345" t="n">
+        <v>12.52726</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B346" t="n">
+        <v>7668</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>CET SPA</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>41.8650312</v>
+      </c>
+      <c r="E346" t="n">
+        <v>12.6053862</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B347" t="n">
+        <v>7684</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>LIASA SRL</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>42.0165038</v>
+      </c>
+      <c r="E347" t="n">
+        <v>12.8948161</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B348" t="n">
+        <v>7693</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>C.M.E. COSTR. MACCHINE ECOLOGICHE COOP.SOC</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>41.955471</v>
+      </c>
+      <c r="E348" t="n">
+        <v>12.7640919</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B349" t="n">
+        <v>7698</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>BOX 3 SRL</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>41.7089419</v>
+      </c>
+      <c r="E349" t="n">
+        <v>12.5878655</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B350" t="n">
+        <v>7757</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>I.C.M.T. INDUSTRIALI COSTRUZIONI MECCANICHE</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>41.9319084</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12.6087998</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B351" t="n">
+        <v>7808</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>VARMONT IMPIANTI  SRL</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>41.9284895</v>
+      </c>
+      <c r="E351" t="n">
+        <v>12.5489162</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B352" t="n">
+        <v>7866</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>PALMA - SOCIETA' A RESPONSABILITA' LIMITATA</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>41.9508257</v>
+      </c>
+      <c r="E352" t="n">
+        <v>12.5952523</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B353" t="n">
+        <v>7905</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>SOC.MAREMMANA PETROLI A.R.L.</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>41.9719906</v>
+      </c>
+      <c r="E353" t="n">
+        <v>12.7636083</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B354" t="n">
+        <v>7926</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>EDILELECTRA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>41.950800</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>12.701952</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B355" t="n">
+        <v>7945</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>ECOLOGIA VERZILLI S.R.L.</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>42.2374905</v>
+      </c>
+      <c r="E355" t="n">
+        <v>11.739691</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B356" t="n">
+        <v>7993</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>CUTRA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>41.8914183</v>
+      </c>
+      <c r="E356" t="n">
+        <v>12.5001951</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B357" t="n">
+        <v>8012</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>RETE FERROVIARIA ITALIANA - SOCIETA PER</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>41.8976618</v>
+      </c>
+      <c r="E357" t="n">
+        <v>12.5400772</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B358" t="n">
+        <v>8074</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>ASL RM 5</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>41.95747</v>
+      </c>
+      <c r="E358" t="n">
+        <v>12.803985</v>
+      </c>
+      <c r="F358" t="inlineStr">
         <is>
           <t>client</t>
         </is>
